--- a/CompareDevices.xlsx
+++ b/CompareDevices.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="38" uniqueCount="32">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="44" uniqueCount="35">
   <si>
     <t>Name of Device</t>
   </si>
@@ -120,6 +120,15 @@
   </si>
   <si>
     <t>Display, Phone Calls, Bluetooth Connectivity</t>
+  </si>
+  <si>
+    <t>Thalmic Labs Myo</t>
+  </si>
+  <si>
+    <t>Input Devices</t>
+  </si>
+  <si>
+    <t>EMG Sensors</t>
   </si>
 </sst>
 </file>
@@ -437,20 +446,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="I7" sqref="I7"/>
+      <selection activeCell="H8" sqref="H8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="16.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="16.5703125" customWidth="1"/>
     <col min="4" max="4" width="17.42578125" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="24.85546875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="30.140625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="15.140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -607,6 +615,32 @@
         <v>31</v>
       </c>
     </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7" t="s">
+        <v>33</v>
+      </c>
+      <c r="C7">
+        <v>95</v>
+      </c>
+      <c r="D7">
+        <v>48</v>
+      </c>
+      <c r="E7" t="s">
+        <v>26</v>
+      </c>
+      <c r="F7" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" t="s">
+        <v>26</v>
+      </c>
+      <c r="H7" t="s">
+        <v>34</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
